--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,14 +523,364 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D4" t="n">
+        <v>20221221</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>23시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>집에 도착하는 [대로] 전화를 하다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>의존명사</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>높새바람</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>돌보다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>사랑채</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>온갓</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>예사말/예삿말</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>사이시옷 O</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>사이시옷 X</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[오랜] 가뭄 끝에 비가 내렸다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>관형사</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>눈발</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>높새바람</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>시누이</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[첫째]가 벌써 중학생이다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>대명사</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>들쑤시다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[첫째], 우리말을 사랑해야 한다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>수사</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>잡아먹히다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20221223</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11시 55분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,14 +873,189 @@
           <t>파생어</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20221223</t>
-        </is>
+      <c r="D18" t="n">
+        <v>20221223</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>11시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>시누이</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>08시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>눈발</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>들쑤시다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>굳세다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>08시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>새해</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>08시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>보드랍고 화창한 바람</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>명지바람</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>08시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>감기 걸린 사람이 [한둘]이 아니다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>수사</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20221224</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>08시 09분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,14 +1048,64 @@
           <t>명사</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20221224</t>
-        </is>
+      <c r="D25" t="n">
+        <v>20221224</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>08시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[-시-], [께서], [-님], 진지, 계시다, 잡수시다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>객체 높임법</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>주체 높임법</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>喜壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>고희</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>희수</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20221228</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09시 03분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1098,14 +1098,64 @@
           <t>희수</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20221228</t>
-        </is>
+      <c r="D27" t="n">
+        <v>20221228</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>09시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>성의껏</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[-냐?], [-는가?]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>하오체</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20221229</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,14 +1148,841 @@
           <t>하게체</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>20221229</t>
-        </is>
+      <c r="D29" t="n">
+        <v>20221229</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>식구</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>말이나 하는 짓이 실없고 싱겁다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>비나리치다</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>객쩍다</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>05시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>외도</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>05시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>예의를 지키지 않으며 삼가고 조심하는 것이 없다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>무람없다</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>05시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>놀부</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>05시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>말씀</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>05시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>과연 정말로</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>국으로</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>짜장</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>05시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>집이나 세간 따위가 겉으로 보기보다는 속이 꽤 너르다
+마음씨가 너그럽고 미덥다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>슬겁다</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>05시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>05시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>짐승</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>05시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>남의 말이 끝나자마자 이어 말하다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>말이 있다</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>말꼬리를 물다</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>어떤 말이 상정되거나 토론이 되다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>말길이 되다</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>말이 있다</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>얼굴</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>입이 무거워 말수가 적다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>입이 여물다</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>입이 뜨다</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>05시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>보기에 너절하고 염치없는 데가 있다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>객쩍다</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>츱츱스럽다</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>사물을 판단할 수 있는 지각이나 실마리</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>얼금뱅이</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>가리사니</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>05시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>[-군/어]</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>맨손</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>[-(아/어)요], [-지요]</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>[-(아/어)요?]</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 종료</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>해요체</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>남의 말이 끝나자마자 이어 말하다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>맛을 붙이다</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>말꼬리를 물다</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>05시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>짐승</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>05시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>얼굴</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>06시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>喜壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>고희</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>희수</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>06시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>한국인</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>06시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>한약 세 첩 그 집 안방은 창문에서 창문까지 이십오 척 너비다.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>채</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>척</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>06시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>벗어나다</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>06시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>사랑채</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>06시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>덮개</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>06시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>인색하다</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>암팡지다</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>손이 맑다</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>06시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>[-ㅂ시다]</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>하오체</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>06시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>오염되다 / 무시당하다 / 거절당하다</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>어휘적 피동</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>파생적 피동</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>06시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>못마땅하여 기분이 언짢다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>입이 되다</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>입이 쓰다</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>06시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>닭이 세 홰 울다.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>뭇</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>홰</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20230103</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1975,14 +1975,264 @@
           <t>홰</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>20230103</t>
-        </is>
+      <c r="D63" t="n">
+        <v>20230103</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[-ㅂ시다]</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>하십시오체</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>하오체</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>07시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>사랑채</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>못마땅하여 기분이 언짢다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>입이 뜨다</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>입이 쓰다</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>벗어나다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>어떤 말이 상정되거나 토론이 되다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>말길이 되다</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>말이 있다</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>입이 무거워 말수가 적다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>입이 여물다</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>입이 뜨다</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>과년(過年)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>남자 나이 20세</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>주로 여자의 나이가 보통 혼인할 시기를 지난 상태에 있음</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>맛있는 음식만 먹으려고 하는 버릇이 있어 음식에 매우 까다롭다</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>입이 높다</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>입이 되다</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>07시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>자네, 그럼 이리로 좀 오지</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>20230105</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>07시 59분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2225,14 +2225,335 @@
           <t>해체</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>20230105</t>
-        </is>
+      <c r="D73" t="n">
+        <v>20230105</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>07시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>잗주름/잣주름</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>10시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>반짇고리/반짓고리</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>10시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>입이 무거워 말수가 적다</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>입에 붙다</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>입이 뜨다</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ㄹ+ㄴ,ㄷ,ㅅ,ㅈ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>용언 활용</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>봉당</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>마루</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>자네, 그럼 이리로 좀 오지</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>반짇고리/반짓고리</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>10시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>어린이난</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>란</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>난</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>맛있는 음식만 먹으려고 하는 버릇이 있어 음식에 매우 까다롭다</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>입이 높다</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>입이 되다</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>잗주름/잣주름</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>11시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>11시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>[-ㅂ시다]</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>하십시오체</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>하오체</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230107</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>11시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>짐승</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>20230107</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2546,14 +2546,739 @@
           <t>의미 축소</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>20230107</t>
-        </is>
+      <c r="D86" t="n">
+        <v>20230107</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>반짇고리/반짓고리</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>입이 무거워 말수가 적다</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>입이 쓰다</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>입이 뜨다</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>09시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>맛있는 음식만 먹으려고 하는 버릇이 있어 음식에 매우 까다롭다</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>입이 여물다</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>입이 되다</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>[-ㅂ시다]</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>해요체</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>하오체</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ㄱ. ㅜㄴ. ㅓㄷ. ㅢ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>09시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>버선 한 죽</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>장</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>죽</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>09시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>삼짇날/삼짓날</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>09시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>못나다</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>09시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>새빨갛다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>09시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>[-세]</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>하오체</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>09시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>예의를 지키지 않으며 삼가고 조심하는 것이 없다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>상없다</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>무람없다</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>09시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>몹시 짖궃은 데가 있다</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>칙살스럽다</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>시망스럽다</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>넓이</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>대무지(大拇指)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>다섯째 손가락</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>첫째 손가락</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>하네</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>꼬리말/꼬릿말</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>사이시옷 O</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>사이시옷 X</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>09시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>마누라</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>봄내</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>09시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>젊은이</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>가진 것은 이것[뿐]이다</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>조사</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>10시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>㉢ 얇은 구름의 덩이를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>점</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>장</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>그날 회의에는 회원이 [여남은]밖에 모이지 않았다</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>수사</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>길짐승</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>풋사랑</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>어떤 말이 상정되거나 토론이 되다</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>말꼬리를 물다</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>말이 있다</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>[아무] 사람이나 만나서는 안 된다</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>관형사</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>들개</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230108</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>하니?</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>20230108</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10시 10분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3271,14 +3271,1136 @@
           <t>격식체</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>20230108</t>
-        </is>
+      <c r="D115" t="n">
+        <v>20230108</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>10시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>맛있는 음식만 먹으려고 하는 버릇이 있어 음식에 매우 까다롭다</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>입이 높다</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>입이 되다</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>반짇고리/반짓고리</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>봄내</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>입이 무거워 말수가 적다</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>입이 여물다</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>입이 뜨다</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>예의를 지키지 않으며 삼가고 조심하는 것이 없다</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>가닐대다</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>무람없다</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>버선 한 죽</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>쌍</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>죽</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>잗주름/잣주름</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>못나다</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>짐승</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>들개</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>어떤 말이 상정되거나 토론이 되다</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>말길이 되다</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>말이 있다</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>하니?</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>삼짇날/삼짓날</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>벽지(擘指)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>다섯째 손가락</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>첫째 손가락</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>바람이 [가볍게] 부는 날씨에 기분이 좋았다</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>높새바람</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>07시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
+고사리 한 두름</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>모</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>봄내</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>짐승</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>잗주름/잣주름</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>바람이 [가볍게] 부는 날씨에 기분이 좋았다</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>하니?</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>어떤 말이 상정되거나 토론이 되다</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>말길이 되다</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>말이 있다</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>못나다</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>께(조사), 모시다, 드리다, 뵙다, 어쭙다</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>주체 높임법</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>객체 높임법</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>자신의 살아있는 아버지</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">자친 </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>가친 : 엄친</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>紙婚式(지혼식)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10주년</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1주년</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>마누라</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>돌아오다</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>식구</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>합니까?</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>하십시오체</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>잡아먹히다</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>사물을 판단할 수 있는 지각이나 실마리</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>축</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>가리사니</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>말씀</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>잗다랗다/잣다랗다</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>花婚式(화혼식)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>25주년</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>6주년</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>시누이</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>사기꾼에게 이용[당하다]</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>어휘적 피동</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>통사적 피동</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>창피를 당해 얼굴을 들고 다닐 수 없게 되다</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>객쩍다</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>코를 싸쥐다</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>마중</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>굴비. 비웃 따위나 고비. 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리. 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>관</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>갓</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>한 우리는 기와 2천 장이다</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>아름</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>우리</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>銀婚式(은혼식)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1주년</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>25주년</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>섣달/섯달</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>20230111</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4393,14 +4393,1310 @@
           <t>ㄷ</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>20230111</t>
-        </is>
+      <c r="D160" t="n">
+        <v>20230111</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>열심히 공부 [했는 데/했는데] 떨어졌다</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 'ㄴ데'는 어미</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>07시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>너도 알다시피 내게 무슨 힘이 있니?</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>아다시피</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>알다시피: '-는 바와 같이'의 뜻을 나타냄</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>08시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>사전 순서가 앞에 있는 것은?</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ㅣ</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ㅡ</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>깊숙이</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">히 </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>이 : 예외 of '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>08시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>갯펄</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>개펄: 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>08시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>강이 깊으매 큰 고기가 살고 덕이 넓으매 인물이 모여드니라</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>으메</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>으매: -(으)매, 어떤 일에 대한 원인이나 근거를 나타냄</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>08시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>식구</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>[밤 중/밤중]</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>08시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>생각하건대 -&gt; 생각건대</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>생각컨대</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>생각건대: '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>08시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>그는 우리 시대의 [스승이라기 보다/스승이라기보다]는 자상한 아버지이다</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O, X </t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 조사는 붙여쓴다</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>08시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>진득이</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">히 </t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>이 : 예외 of '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>[무의식 중/무의식중]</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>08시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>그는 예의를 지키고자 스승을 찾았다</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>지키고저</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>지키고자: -고자, 어떤 행동을 할 의도나 욕망을 가지고 있음</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>08시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>-(스)ㅂ니까?</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>-(스)ㅂ니까?: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>08시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>싹뚝</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>싹둑</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>08시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>선물을 [줄 걸/줄걸]</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : '-ㄹ걸'은 종결어미</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>09시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>[볼 만큼/볼만큼] 보았다</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '만큼'은 의존명사</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>09시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>소줏병</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>소주병: '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>09시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>꼭지점</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>꼭짓점</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>09시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>[너 대로/너대로]</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : '대로'는 조사로 쓰임</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>09시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>키 높이 구두를 신어 키를 높여라</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>높혀라</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>높여라: 피동 접사 '-히-'는 받침이 'ㄱ,ㄷ,ㅂ,ㄺ,ㄵ' 등인 어간에 붙음</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>09시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>빨래줄</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>빨랫줄</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>09시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>소주집</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>소줏집</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ까?</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ까?: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>09시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>내 힘으로 [막아 낸다/막아낸다]</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X : 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>[그런 식으로/그런식으로] 말하지 마</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 일정하게 굳어진 말투, 방식, 습관을 의미하는 의존명사</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>생각하건대 -&gt; 생각건대</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>생각컨대</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>생각건대: '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>삼짇날</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>'ㄷ' 소리로 나는 받침 중에서 'ㄷ'으로 적을 근거가 없는 것은 'ㅅ'으로 적는다</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 : 삼질~</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>[제 3장/제3장]의 내용을 요약해 주세요</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 제~ 는 붙여쓴다</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>[굴 속/굴속]</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>-(으)리까?</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>-(으)리까?: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>[마음 속/마음속]</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>누가 왔관데 이리 소란스러울까?</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>왔관대</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>왔관데: -관데, 예스러운 표현으로, 원인이나 근거를 나타냄</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>학문에 뜻을 [두셨던 바/두셨던바] 드디어 결실을 맺었다</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 'ㄴ바'는 어미</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ까?: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>[두 시/두시](2 o'clock)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X : 띄어쓰는게 원칙이나 붙여쓰는 것도 허용</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ꼬?</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ꼬?: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>나랏님</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>나라님: 파생어이므로 사이시옷 표기하지 않음</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>[근무 중/근무중]</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>책을 [읽어도 보고 … / 읽어도보고…]</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 조사가 붙으면 보조 용언은 띄어 쓴다</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>볼때기</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대기 </t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>때기 : '-때기', 비하의 뜻을 나타낼 때</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>어머니를 [도와 드린다/도와드린다]</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X : 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>[굴 속/굴속]</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>못나다</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>09시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>잡아먹히다</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>맥줏잔</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>맥주잔: '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>창피를 당해 얼굴을 들고 다닐 수 없게 되다</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>던적스럽다</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>코를 싸쥐다</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>두둑이</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">히 </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>이 : 예외 of '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>[그 중/그중]</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>언제 [한 번/한번] 찾아가 뵙고 싶습니다.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>09시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>말씀</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>09시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>멋쩍다</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">적다 </t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>쩍다 : '적다[少]'의 뜻이 없이 [쩍다]로 발음되는 경우는 '쩍다'로 적음</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>20230114</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>09시 49분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1387,7 +1387,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>남의 말이 끝나자마자 이어 말하다</t>
+          <t>남의 말이 끝나자마자 이어 말하</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5689,14 +5689,3032 @@
           <t>쩍다 : '적다[少]'의 뜻이 없이 [쩍다]로 발음되는 경우는 '쩍다'로 적음</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>20230114</t>
-        </is>
+      <c r="D212" t="n">
+        <v>20230114</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>09시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>두둑이</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">히 </t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>이 : 예외 of '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>08시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>무릇</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 </t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>'ㄷ' 소리로 나는 받침 중에서 'ㄷ'으로 적을 근거가 없는 것은 'ㅅ'으로 적는다</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>08시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>마누라</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>08시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>[큰 지 작은 지/큰지 작은지]</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O &amp; X </t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 'ㄴ지'는 어미, 시간 X</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>08시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>멋쩍다</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">적다 </t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>쩍다 : '적다[少]'의 뜻이 없이 [쩍다]로 발음되는 경우는 '쩍다'로 적음</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>08시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>잘도 [놀아만 나는구나!/놀아만나는구나!]</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 조사가 붙으면 보조 용언은 띄어 쓴다</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>08시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>[예쁜 데다가/예쁜데다가]</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>08시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>끔찍이</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">히 </t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>이 : 예외 of '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>08시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>뚝배기</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">빼기 </t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>배기 : 한 형태소 안에서 'ㄱ, ㅂ' 받침 뒤에서 [빼기]로 발음되는 경우</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>08시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>[먹을 걸/먹을걸] 가져오렴</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '걸'은 의존명사</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>08시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>花婚式(화혼식)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>20주년</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>6주년</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>08시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>이 문제는 너로서 시작되었다</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>로써</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>로서: (으)로서, 지위, 신분, 자격, 동작이 일어나는 곳을 나타냄</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>08시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>나랏님</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>나라님: 파생어이므로 사이시옷 표기하지 않음</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>08시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>생강차는 기침을 삭이는 데 좋다</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>삭히는</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>삭이는: '삭이다', '삭다'의 사동사</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>08시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>소주집</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>소줏집</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>08시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>일러, 일렀다</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'ㅡ' 탈락 </t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>'르' 불규칙 : 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 이르다</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>08시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>[머릿 속/머릿속]</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>[굴 속/굴속]</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O &amp; X </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 </t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>히 : '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>통보하여 [온 바/온바] 이를 알립니다</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 'ㄴ바'는 어미</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>판자때기</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대기 </t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>때기 : '-때기', 비하의 뜻을 나타낼 때</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>08시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ까</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ까: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>08시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>자음의 발음으로 옳은 것은? ㅈ</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>지옺</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>지읒</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>08시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>어떤 말이 상정되거나 토론이 되다</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>말꼬리를 물다</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>말이 있다</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>08시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>맛있는 음식만 먹으려고 하는 버릇이 있어 음식에 매우 까다롭다</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>입이 질다</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>입이 되다</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>08시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>돌도 삭일 나이에 그렇게 소화를 못 시켜서 어떻게 하냐</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>삭힐</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>삭일: '삭이다', '삭다'의 사동사</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>08시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>안주거리</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>안줏거리</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>08시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>어머니를 [도와 드린다/도와드린다]</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X : 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>08시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>사기꾼에게 이용[당하다]</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>어휘적 피동</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>통사적 피동</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>08시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ쏘냐</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ쏘냐: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>08시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>못나다</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ꼬</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ꼬: 의문을 나타내는 어미는 된소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ진대</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>-(으)ㄹ진대: 의문을 나타내지 않는 어미는 예사소리로 적는다</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>08시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>하마</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>모습</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>벌써</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>08시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
+고사리 한 두름</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>그루</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>08시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>길짐승</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>08시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>고요히</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 </t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>히 : '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>08시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>내 힘으로 [막아 낸다/막아낸다]</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O &amp; X : 보조 용언은 띄어 씀을 원칙으로 하되, 경우에 따라 붙여 씀도 허용한다</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>08시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>喜壽(00살)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>08시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>가</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>08시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>상년(桑年) 상수(桑壽)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>80세</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>48세</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>08시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>사전 순서가 앞에 있는 것은?</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ㅣ</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>ㅢ</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>08시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>방년(芳年). 묘년(妙年)</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>88세</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>20세</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>08시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>쌈</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>마름</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>무지(拇指)</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>첫째 손가락</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>[그런 식으로/그런식으로] 말하지 마</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 일정하게 굳어진 말투, 방식, 습관을 의미하는 의존명사</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>08시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>공부를 시작한 지 올해로써 2년이 된다</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>로서</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>로써: 로써, 재료, 수단, 도구, 시간을 셈할 때 씀</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>09시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>곱빼기</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배기 </t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>빼기 : 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>09시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>[먹을 만큼/먹을만큼] 먹어라</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O &amp; X </t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '만큼'은 의존명사</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>09시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>생김새가 [어떤] 사람이니?</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>관형사</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>09시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>[먹을 만큼/먹을만큼] 먹어라</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O &amp; X </t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '만큼'은 의존명사</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>09시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>손으로 [우단 천/우단천]을 결과 반대 방향으로 …</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O &amp; X </t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 우단(명사)천(명사)로 별개의 단어는 띄어쓴다. cf)'우단'은 velvet이다</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>가슴이 에이는 듯한 아픔이었다</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>에는</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>에이는: '에이다', '에다'의 피동사</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>09시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>[다른] 생각 말고 공부나 해라</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>관형사</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>09시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>磁器婚式(자기혼식)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>25주년</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>20주년</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>염지(鹽指)</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>둘째 손가락</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>학배기</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">빼기 </t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>배기 : 한 형태소 안에서 'ㄱ, ㅂ' 받침 뒤에서 [빼기]로 발음되는 경우</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>뒷뜰</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>뒤뜰: 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>한껏</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>㉤떨어지는 물방울 따위를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>알</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>점</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>염지(鹽指)</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>셋째 손가락</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>둘째 손가락</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>뒷뜰</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>뒤뜰: 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>새빨갛다</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>09시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>자음의 발음으로 옳은 것은? ㅌ</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>티긑</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>티읕</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>생김새가 [어떤] 사람이니?</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>관형사</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>09시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>굴비. 비웃 따위나 고비. 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리. 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>갓</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>법썩</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>법석</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>09시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>일을 꾸려 나가는 사람을 곁에서 거들어 도와줌</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>볼썽</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>봉죽</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>09시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>서릿발</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>09시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>시름없다</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>09시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>대무지(大拇指)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>다섯째 손가락</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>첫째 손가락</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>09시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>거멓다</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>09시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>부피의 단위 곡식</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>초점: '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>09시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>표기로 옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>법썩</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>법석</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>촛점</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>초점: '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>엄지(손가락)</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>다섯째 손가락</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>첫째 손가락</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>젊은이</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>오염되다 / 무시당하다 / 거절당하다</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>어휘적 피동</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>파생적 피동</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>생강차는 기침을 삭이는 데 좋다</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>삭히는</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>삭이는: '삭이다', '삭다'의 사동사</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>09시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>동생의 잘못을 깨우쳐 주다</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>깨쳐</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>깨우쳐: '깨우치다', 깨달아 알게 하다</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>굶주리다</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>[-자]</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>해라체</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>[볼 만큼/볼만큼] 보았다</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '만큼'은 의존명사</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>10시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>하자</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>10시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>먹어, 먹지</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>10시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>[가까운 데다가/가까운데다가]</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>아름다운 서울에서 살렵니다</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>살으렵니다</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>살렵니다: 용언 받침 'ㄹ' 뒤 매개 모음은 쓰지 않음</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>벽지(擘指)</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>넷째 손가락</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>첫째 손가락</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>그의 [말 마따나/말마따나]</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : '마따나'는 조사</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>자음의 발음으로 옳은 것은? ㅈ</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>지옺</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>지읒</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>[큰 지 작은 지/큰지 작은지]</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 'ㄴ지'는 어미, 시간 X</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>10시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>[가까운 데다가/가까운데다가]</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>악착빼기</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배기 </t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>빼기 : 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>10시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>[가까운 데다가/가까운데다가]</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>10시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>악착빼기</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배기 </t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>빼기 : 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>10시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>[-냐?], [-는가?]</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>하오체</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>10시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>[가까운 데다가/가까운데다가]</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : '데'는 의존명사 (곳, 장소, 일, 것, 경우)</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>10시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>잡아먹히다</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>10시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>급급히</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 </t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>히 : '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>10시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>귀가길</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>귀갓길</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>10시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>과년(瓜年)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>20세</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>여자가 혼기에 이른 나이(여자 16세)</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>들러, 들러라</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'르' 불규칙 </t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>'ㅡ' 탈락 : 어간의 'ㅡ'가 어미 '-아/-어' 앞에서 탈락한다, 들르다</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>새파랗다</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>가슴을 에는 듯한 슬픔이 몰아쳤다</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>에이는</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>에는: '에다', 칼 따위로 도려내듯 베다. 마음을 몹시 아프게 하다</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>푿소/풋소</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>들러, 들러라</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'르' 불규칙 </t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>'ㅡ' 탈락 : 어간의 'ㅡ'가 어미 '-아/-어' 앞에서 탈락한다, 들르다</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>10시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>강물에 [떠내려가 버렸다/떠내려가버렸다]</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 앞말이 합성 동사인 경우 보조 용언은 띄어 쓴다</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>10시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>언제 [한 번/한번] 찾아가 뵙고 싶습니다.</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 부사는 붙여쓴다. 두 번, 세 번으로 바꿀 수 있으면 띄어쓴다</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>10시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>[너희 중/너희중]에 누가</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>놈</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>수정 [요청 시/요청시] 연관된 항목을 …</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 의존명사는 띄어쓴다</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>들쑤시다</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>들쑤시다</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>11시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>[너희 중/너희중]에 누가</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>11시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>방년(芳年). 묘년(妙年)</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>48세</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>20세</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>11시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>한다</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>해라체</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>11시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>[열 시/열시]에 만난다</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O &amp; X </t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 시각, 어떤 일이나 현상일 경우 의존명사</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>진갑(進甲)</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>벼슬의 임기가 다한 나이</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>62세</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>돌아가다</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>㉠ 채소나 과일 따위를 묶어 세는 단위. 한 접은 채소나 과일 백 개를 이른다.</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>축</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>접</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>시누이</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>20230117</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8707,14 +8707,385 @@
           <t>파생어</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>20230117</t>
-        </is>
+      <c r="D333" t="n">
+        <v>20230117</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
           <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">장소가 [어디]야? </t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 : 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>05시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>[무엇]이든 물어보세요</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부정칭 대명사 </t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>부정칭 대명사 : 정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[누구]세요? </t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">미지칭 대명사 </t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 : 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">장소가 [어디]야? </t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">미지칭 대명사 </t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>미지칭 대명사 : 누구(무엇)인지 모르지만 가리키는 대상이 정해진 대명사</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>[누구]나 환영입니다</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부정칭 대명사 </t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>부정칭 대명사 : 정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>05시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>부정칭 대명사</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>부정칭 대명사: 정해지지 아니한 대상</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>05시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>모자람 없이 온전하게. 고요하고 쓸쓸하게</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>여봐란듯이</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>오롯이</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>재산이나 자원 따위가 매우 많고 풍족하다</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>데생기다</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>가멸차다, 가멸다</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>시누이</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>[열 시/열시]에 만난다</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 시각, 어떤 일이나 현상일 경우 의존명사</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>05시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>재산이나 자원 따위가 매우 많고 풍족하다</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>속을 달다</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>가멸차다, 가멸다</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>06시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>태도나 성질이 부드럽고 친절하다. 꼼꼼하고 자세하다</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>시망스럽다</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>곰살궂다</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>얼룩빼기</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배기 </t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>빼기 : 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>06시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>푿소/풋소</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>ㅅ</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ㄷ</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>06시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>먹어, 먹지</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>20230123</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>06시 18분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E348"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9078,14 +9078,1052 @@
           <t>해체</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>20230123</t>
-        </is>
+      <c r="D348" t="n">
+        <v>20230123</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
           <t>06시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>모자람 없이 온전하게. 고요하고 쓸쓸하게</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>짜장</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>오롯이</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>06시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>등교길</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>등굣길</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>생김새나 됨됨이가 완전하게 이루어지지 못하여 못나게 생기다</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>곰살궂다</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>데생기다</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>하자</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>해라체</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>06시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>대갈빼기</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">박이 </t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>빼기 : 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>06시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>[-네]</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>06시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>곡식이나 장작 따위의 더미를 세는 단위 한 가리는 20단</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>되</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>가리</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>06시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>에너지양</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>량</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>양</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>06시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>[-아/어], [-지]</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>06시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>틈틈히</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>틈틈이</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>새치름하다</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>느즈감치</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>느지감치</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>거적떼기</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>거적때기</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>태도나 성질이 부드럽고 친절하다. 꼼꼼하고 자세하다</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>슬겁다</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>곰살궂다</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>붕숭화</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>봉선화</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>[-아/어], [-지]</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>상판때기</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>상판대기</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>05시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>생김새나 됨됨이가 완전하게 이루어지지 못하여 못나게 생기다</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>곰삭다</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>데생기다</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>05시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>삐지다</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>05시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>겸언쩍다</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>05시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>애달프다</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>05시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>틈틈이</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>05시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>아지랑이</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>끄적거리다</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>여직껏</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>입때껏</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>아주머니는 부엌에서 갖가지 양념을 뒤져내고 있었다</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>뒤어내고</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>뒤져내고</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>봉선화</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>야단법썩</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>야단법석</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>05시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>애닯다</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>애달프다</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>05시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>큰 죄를 짓고도 그는 버젓이 대중 앞에 나섰다</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>뉘연히</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>버짓이</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>05시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>새초롬하다</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>05시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>동거동락</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>동고동락</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>06시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>놀잇감</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>06시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>예닐곱</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>5 6</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>06시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>여보게, 어디 가는가?</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>생김새가 [어떤] 사람이니?</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>외도</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>남에게 보이는 체면이나 태도</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>말곁</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>볼썽</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>06시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>무뚝뚝한 성미로 화를 내다</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>비나리치다</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>불뚝하다</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>뒷편</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>뒤편: 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>06시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>보십시오</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>06시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>이튿날</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>'ㄷ' 소리로 나는 받침 중에서 'ㄷ'으로 적을 근거가 없는 것은 'ㅅ'으로 적는다</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 : 이틀~</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>20230124</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>06시 50분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10116,14 +10116,964 @@
           <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 : 이틀~</t>
         </is>
       </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>20230124</t>
-        </is>
+      <c r="D390" t="n">
+        <v>20230124</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
           <t>06시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>봉선화</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>09시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>삐치다</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>09시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>겸언쩍다</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>09시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>옳은 것은? Glass</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>글래스</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>글라스</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>09시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>느지감치</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>동거동락</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>동고동락</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>큰 죄를 짓고도 그는 버젓이 대중 앞에 나섰다</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>버짓이</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>생김새가 [어떤] 사람이니?</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>관형사</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>표기가 옳은 것은? 사이시옷</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>뒷편</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>뒤편: 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>09시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>부줏돈</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>부좃돈</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>09시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>애닯다</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>애달프다</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>자음의 발음으로 옳은 것은? ㅈ</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>지옺</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>지읒</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>젊은이</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>머리말/머릿말</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>사이시옷 O</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>사이시옷 X</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>[영웅 중/영웅중]의 영웅</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>물건</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>후분</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>황후</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>[오랜 만/오랜만]</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>09시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>첫사랑</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>09시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>[-아/어], [-지]</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>09시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>맛나다</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>09시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>[-냐?], [-는가?]</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>해라체</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>09시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>오곡백화</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>오곡백과</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>통보하여 [온 바/온바] 이를 알립니다</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 'ㄴ바'는 어미</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>09시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>일을 꾸려 나가는 사람을 곁에서 거들어 도와줌</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>만수받이</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>봉죽</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>09시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>꼼꼼히</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이 </t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>히 : '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>09시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>대갈빼기</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">박이 </t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>빼기 : 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>여직껏</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>이제껏</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>[제 3장/제3장]의 내용을 요약해 주세요</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 제~ 는 붙여쓴다</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>상년(桑年) 상수(桑壽)</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>91세</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>48세</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>09시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>마누라</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>[영웅 중/영웅중]의 영웅</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : -가운데, -동안, 등급, 수준, 크기의 경우 의존명사</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>맛나다</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>대갈빼기</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">배기 </t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>빼기 : 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>[-아/어], [-지]</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>[오랜 만/오랜만]</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>일을 꾸려 나가는 사람을 곁에서 거들어 도와줌</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>줄목</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>봉죽</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>20230125</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_객관식.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11066,14 +11066,806 @@
           <t>봉죽</t>
         </is>
       </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>20230125</t>
-        </is>
+      <c r="D428" t="n">
+        <v>20230125</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
           <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>치솟다</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>상년(桑年) 상수(桑壽)</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>91세</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>48세</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>마누라</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>손</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>오곡백화</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>오곡백과</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>15시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>되묻다</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>늙은이</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>동갑내기</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>자네, 그럼 이리로 좀 오지</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>하자</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>해라체</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>되묻다</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>되묻다</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>15시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>마누라</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>의미 하락</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>의미 축소</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>물건을 여러 몫으로 나누는 일</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>미구</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>노느매기</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>15시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>하자</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>해라체</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>15시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>담배를 피울 시간도 없다</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>필</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>피울: '피다'의 사동사, 어떤 물질에 불을 붙여 연기를 빨아들이었다가 내보내다</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>15시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>무릉도원</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>의미 이동</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>너보다 키가 더 [클 걸/클걸]</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : '-ㄹ걸'은 종결어미</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>15시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>[-(아/어)라]</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>㉠ 곡식이나 물. 술 따위를 되에 담아 그 분량을 세는 단위한 되들이 술병</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>쾌</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>되들이</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>시키다</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>파생적 사동</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>어휘적 사동</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>가</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>[-아/어], [-지]</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>격식체</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>비격식체</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>손으로 [우단 천/우단천]을 결과 반대 방향으로 …</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 X </t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>띄어쓰기 O : 우단(명사)천(명사)로 별개의 단어는 띄어쓴다. cf)'우단'은 velvet이다</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>㉠ 액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위물 한 모금. 담배 몇 모금</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>모금</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>벽지(擘指)</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>다섯째 손가락</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>첫째 손가락</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>마음이나 생각 따위가 잘못 들다</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>데알다</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>빗들다</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>옳은 것은?</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>둘 다 맞음</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>아지랑이</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>16시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>㉠ 짚. 장작. 채소 따위의 작은 묶음을 세는 단위땔감은 아예 말똥. 소똥을 말려 쓰고. 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>축</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>뭇</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>[밤 중/밤중]</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">띄어쓰기 O </t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>띄어쓰기 X : 한 단어이므로 붙여 씀</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>[-군/어]</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>하게체</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>해체</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>식구</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>의미 확대</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>20230126</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
         </is>
       </c>
     </row>
